--- a/21_住所録.xlsx
+++ b/21_住所録.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -415,6 +415,35 @@
   </si>
   <si>
     <t>336-0021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇〇ガーデン805</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇〇ビル2F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇〇ビル2F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(株)GKスポーツ</t>
+    <rPh sb="1" eb="2">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学研建設(株)</t>
+    <rPh sb="0" eb="4">
+      <t>ガッケンケンセツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カブ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -503,7 +532,7 @@
     <tableColumn id="7" name="会社名"/>
     <tableColumn id="8" name="関係"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -803,7 +832,8 @@
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -888,6 +918,12 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
@@ -947,6 +983,12 @@
       <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
@@ -987,6 +1029,12 @@
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
@@ -1044,6 +1092,9 @@
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
@@ -1083,6 +1134,9 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
